--- a/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801CEB3A-C460-E146-AD07-4ED1A92E1227}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5C9AE-1886-9B40-ABD7-50ED5E480765}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="95">
   <si>
     <t>SPRINT BACKLOG — Deliverable 1</t>
   </si>
@@ -296,9 +296,6 @@
     <t>44, Complete Sprint 3 Review Document</t>
   </si>
   <si>
-    <t xml:space="preserve">In progess as of end of sprint </t>
-  </si>
-  <si>
     <t>Michael, Sakshyam, Vasilis: 100%</t>
   </si>
   <si>
@@ -309,6 +306,12 @@
   </si>
   <si>
     <t>79, Conduct Focus Group</t>
+  </si>
+  <si>
+    <t>75, Finalize sprint 3 backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In progress as of end of sprint </t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA6E3B-35E3-6241-B9CA-F55457095861}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1508,7 +1511,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1526,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1661,10 +1664,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
         <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1684,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1707,10 +1710,10 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1730,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
@@ -1794,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1870,6 +1873,9 @@
       <c r="E10">
         <v>2</v>
       </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
       <c r="G10" t="s">
         <v>28</v>
       </c>
@@ -1890,6 +1896,9 @@
       <c r="E11">
         <v>2</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -1910,6 +1919,9 @@
       <c r="E12">
         <v>4</v>
       </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -1978,6 +1990,12 @@
       <c r="E16" s="4">
         <v>4</v>
       </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -1995,6 +2013,12 @@
       <c r="E17">
         <v>4</v>
       </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -2046,6 +2070,9 @@
       <c r="E20">
         <v>2</v>
       </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
       <c r="G20" t="s">
         <v>28</v>
       </c>
@@ -2066,7 +2093,33 @@
       <c r="E21">
         <v>2</v>
       </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
       <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5C9AE-1886-9B40-ABD7-50ED5E480765}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C5B5FA-9645-D846-8AD1-82198543ACF9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>SPRINT BACKLOG — Deliverable 1</t>
   </si>
@@ -278,9 +278,6 @@
     <t>1,5</t>
   </si>
   <si>
-    <t>60, Implement driver code to utilize google maps API to generate route from provided schedule detail</t>
-  </si>
-  <si>
     <t>61, Implement front end for route display after API calls to generate route</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>Michael, Sakshyam, Vasilis: 100%</t>
   </si>
   <si>
-    <t>Arpit: 100%</t>
-  </si>
-  <si>
     <t>Yong, Vasilis, Arpit, Michael, Sakshyam, Brody: 100%</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
   </si>
   <si>
     <t>75, Finalize sprint 3 backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In progress as of end of sprint </t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA6E3B-35E3-6241-B9CA-F55457095861}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1465,7 +1456,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1511,7 +1502,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1529,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1649,139 +1640,47 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1797,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1816,7 +1715,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1859,7 +1758,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1882,7 +1781,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1919,8 +1818,8 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
+      <c r="F12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1939,6 +1838,12 @@
       <c r="E13">
         <v>5</v>
       </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -1956,6 +1861,9 @@
       <c r="E14">
         <v>5</v>
       </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -1973,6 +1881,12 @@
       <c r="E15">
         <v>6</v>
       </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1994,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -2017,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -2036,27 +1950,39 @@
       <c r="E18">
         <v>4</v>
       </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -2079,7 +2005,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -2091,35 +2017,12 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C5B5FA-9645-D846-8AD1-82198543ACF9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45385DA7-D117-424D-84C1-1E74AD1713FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="94">
   <si>
     <t>SPRINT BACKLOG — Deliverable 1</t>
   </si>
@@ -242,9 +242,6 @@
     <t>50, Update platform document</t>
   </si>
   <si>
-    <t>51, Update SRS and UCM document</t>
-  </si>
-  <si>
     <t>53, Create Domain Model and Detailed Design Model document</t>
   </si>
   <si>
@@ -303,6 +300,15 @@
   </si>
   <si>
     <t>75, Finalize sprint 3 backlog</t>
+  </si>
+  <si>
+    <t>Yong, Vasilis: 100%</t>
+  </si>
+  <si>
+    <t>Brody, Vasilis: 100%</t>
+  </si>
+  <si>
+    <t>51, Update SRS and UML document</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA6E3B-35E3-6241-B9CA-F55457095861}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1520,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1594,13 +1600,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1617,13 +1623,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1698,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1715,7 +1721,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1758,7 +1764,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1816,15 +1822,18 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1847,7 +1856,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1867,7 +1876,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1885,18 +1894,18 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1908,18 +1917,18 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1931,18 +1940,18 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1982,7 +1991,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -2005,7 +2014,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>

--- a/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_SprintBacklog_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45385DA7-D117-424D-84C1-1E74AD1713FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BE1B87-66AB-474A-AC89-1CADB6E866A5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="95">
   <si>
     <t>SPRINT BACKLOG — Deliverable 1</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>51, Update SRS and UML document</t>
+  </si>
+  <si>
+    <t>Yong, Vasilis, Brody: 100%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DA6E3B-35E3-6241-B9CA-F55457095861}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -1704,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1873,6 +1876,9 @@
       <c r="F14">
         <v>5</v>
       </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
